--- a/main/y_tests vs Predicted.xlsx
+++ b/main/y_tests vs Predicted.xlsx
@@ -453,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -530,7 +530,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -607,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -761,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -849,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -904,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -915,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -948,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1014,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1036,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1135,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1157,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1179,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1212,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1256,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1289,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1311,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1355,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1388,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1421,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1443,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1575,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1608,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1619,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1652,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1663,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1674,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1740,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1762,7 +1762,7 @@
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1817,7 +1817,7 @@
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1850,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1872,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1883,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1905,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1916,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1938,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1949,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1982,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1993,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -2004,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -2048,7 +2048,7 @@
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -2070,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -2092,7 +2092,7 @@
         <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -2103,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2158,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2202,7 +2202,7 @@
         <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2213,7 +2213,7 @@
         <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2257,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2268,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2279,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2367,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2378,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2389,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2400,7 +2400,7 @@
         <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2433,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2444,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2499,7 +2499,7 @@
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2521,7 +2521,7 @@
         <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2543,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2642,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2719,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2752,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2763,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2774,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2807,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2818,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2884,7 +2884,7 @@
         <v>1</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2895,7 +2895,7 @@
         <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2928,7 +2928,7 @@
         <v>1</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2950,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2961,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2972,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -3005,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -3049,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -3071,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -3115,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -3170,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -3181,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -3203,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/main/y_tests vs Predicted.xlsx
+++ b/main/y_tests vs Predicted.xlsx
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -519,7 +519,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1256,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1421,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -1531,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -1740,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -1949,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -2004,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -2279,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -2378,7 +2378,7 @@
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -2433,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -2543,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -2763,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -2774,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -2818,7 +2818,7 @@
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -2972,7 +2972,7 @@
         <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -3005,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -3203,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/main/y_tests vs Predicted.xlsx
+++ b/main/y_tests vs Predicted.xlsx
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1740,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2774,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -3005,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -3203,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
